--- a/data/trans_dic/P21B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.8211761960591586</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8290541024681636</v>
+        <v>0.8290541024681637</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8597023147990502</v>
+        <v>0.8576062787850075</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8750030747418982</v>
+        <v>0.8829457593967796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7820598354625709</v>
+        <v>0.7939947689962628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.724722299805537</v>
+        <v>0.7366950013881641</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8594935366742866</v>
+        <v>0.8651216757622127</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.719642936559172</v>
+        <v>0.7232854592465352</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6465854163130786</v>
+        <v>0.6454797189955628</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7793496067536146</v>
+        <v>0.7802779952154529</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8890281393959503</v>
+        <v>0.8845541227150362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8165821987097684</v>
+        <v>0.8199213895674088</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7509474638700687</v>
+        <v>0.7488693699717018</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7773094098940334</v>
+        <v>0.7729522367733598</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.975835538591906</v>
+        <v>0.976594078467577</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.945524602032503</v>
+        <v>0.948209573544047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8660482842704915</v>
+        <v>0.8771641584169576</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.986085152841529</v>
+        <v>0.9857607777269929</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9094853257554607</v>
+        <v>0.905953549881675</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8538884625921109</v>
+        <v>0.8500783205594558</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9016128346705701</v>
+        <v>0.8963986649954645</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9712178991931096</v>
+        <v>0.9688007689233367</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9333290424746669</v>
+        <v>0.9312048551782469</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8798417031710015</v>
+        <v>0.8818434069924145</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8707385373130401</v>
+        <v>0.8708532517842519</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.852906417838473</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.8345288125713488</v>
+        <v>0.834528812571349</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9130567063528281</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7684984664228509</v>
+        <v>0.7635246367461664</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7725354974090203</v>
+        <v>0.7942116342698122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6573180683123951</v>
+        <v>0.6516742159832771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7556779362301924</v>
+        <v>0.7585538442144492</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8551302130071996</v>
+        <v>0.8419503524620415</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9153140327441183</v>
+        <v>0.9093691222861576</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7464913921057161</v>
+        <v>0.7458746527506112</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7636143378325327</v>
+        <v>0.7606980067261108</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8495464211285514</v>
+        <v>0.8454768107097675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8723789703868557</v>
+        <v>0.8777123425544787</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7505674509822141</v>
+        <v>0.754812967906662</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7888735866432223</v>
+        <v>0.7890565259637564</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9569971186320059</v>
+        <v>0.9564072294915419</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9452881687580458</v>
+        <v>0.947422312934046</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8960329206286537</v>
+        <v>0.8935876929388357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9196855996462504</v>
+        <v>0.9102491410551758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9752999164333285</v>
+        <v>0.9729902673267863</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9897628252011067</v>
+        <v>0.9898379147040005</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9215232167649523</v>
+        <v>0.9188875367690814</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8839494060823887</v>
+        <v>0.8846054534721061</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9553692270288714</v>
+        <v>0.9528460623287694</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9640036217895057</v>
+        <v>0.9677225706613962</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8914850091705477</v>
+        <v>0.8911094196787508</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8848806863020097</v>
+        <v>0.8836559376319048</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9430776752538369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9329780470357047</v>
+        <v>0.9329780470357046</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9342719250990088</v>
@@ -957,7 +957,7 @@
         <v>0.8963239712498811</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9421630414141167</v>
+        <v>0.9421630414141164</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9655971622768171</v>
@@ -969,7 +969,7 @@
         <v>0.9308925002848248</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9364517825962316</v>
+        <v>0.9364517825962315</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9347481013905943</v>
+        <v>0.931517523205427</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9535300321133728</v>
+        <v>0.9571260329433751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8560935618972857</v>
+        <v>0.8652335852803595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.862896011753439</v>
+        <v>0.8651767493722343</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8383160443442167</v>
+        <v>0.8273123692749446</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.874751961756438</v>
+        <v>0.8859043548793456</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7429174888039659</v>
+        <v>0.7269360326005511</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8760562263227299</v>
+        <v>0.8646492017736279</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.926791897441707</v>
+        <v>0.9227548133410642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9527151198962153</v>
+        <v>0.9512575864259604</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8685899669768171</v>
+        <v>0.8640634565285621</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8842942465510119</v>
+        <v>0.8797565448759387</v>
       </c>
     </row>
     <row r="12">
@@ -1030,34 +1030,34 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9847802141401029</v>
+        <v>0.9814451023312613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9759924561743281</v>
+        <v>0.9719731047623077</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9808480560698218</v>
+        <v>0.980802733446565</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9694657656936605</v>
+        <v>0.9691394266156009</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.978452741564964</v>
+        <v>0.9774360359587998</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9868994177632109</v>
+        <v>0.9866699889402689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9951677332341794</v>
+        <v>0.9948332177308178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9701803245642346</v>
+        <v>0.9728017723618365</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9652637963546682</v>
+        <v>0.9672236270468373</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9423146790500347</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9436022064542464</v>
+        <v>0.9436022064542463</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9724207574554378</v>
@@ -1105,7 +1105,7 @@
         <v>0.9503070741592712</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9533057578291586</v>
+        <v>0.9533057578291588</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9464405348257819</v>
+        <v>0.9464966841540551</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9664600577813001</v>
+        <v>0.9631320682850558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9160385417615021</v>
+        <v>0.9152564025709229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9204866191526185</v>
+        <v>0.9242323980921191</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9385826738034195</v>
+        <v>0.9394903483545533</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9372259896820391</v>
+        <v>0.9293676692509995</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8977135644366152</v>
+        <v>0.8952818794299873</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9055092461559405</v>
+        <v>0.9052763533866101</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9533106504112795</v>
+        <v>0.952662703489111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9614255231476713</v>
+        <v>0.9632825922077307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9229057038956675</v>
+        <v>0.9230068101484844</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9303080289305991</v>
+        <v>0.9307049151146639</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.991173492061258</v>
+        <v>0.990820196454831</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9964107147639254</v>
+        <v>0.9964403181281695</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9799306195554027</v>
+        <v>0.9833878456550851</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9818279899383059</v>
+        <v>0.9826576080768105</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9901653721540408</v>
+        <v>0.9896108652477061</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9917754553369007</v>
+        <v>0.9917714588763495</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9727336683538352</v>
+        <v>0.9697536689621546</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.966216320358288</v>
+        <v>0.9681487819290566</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9862242436104784</v>
+        <v>0.9849744227763336</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9924511515666125</v>
+        <v>0.9922322706850745</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9691947533484151</v>
+        <v>0.9711091082710672</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9705140928682473</v>
+        <v>0.9692528745113672</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7726848447306408</v>
+        <v>0.7751628584773695</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9384100015485836</v>
+        <v>0.9351513770201778</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9020223643978348</v>
+        <v>0.8943689610120864</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.801301069978043</v>
+        <v>0.7885008339980224</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.95692496531698</v>
+        <v>0.9559365873106714</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9612727958259446</v>
+        <v>0.9647856632538468</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9478685082666538</v>
+        <v>0.9473892830572817</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9231891547124828</v>
+        <v>0.9240566495236103</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9303618569494757</v>
+        <v>0.9243004821445895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9669842523386329</v>
+        <v>0.9662567756983117</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9440004519283643</v>
+        <v>0.9459711724393854</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.894860940760916</v>
+        <v>0.9008663221359711</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9809277781656268</v>
+        <v>0.9807313316563813</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9889525861146732</v>
+        <v>0.9894138564307472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9802067983234607</v>
+        <v>0.9767138298295276</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9957634842130372</v>
+        <v>0.9957915351826625</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9938982847438768</v>
+        <v>0.993816588759135</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9763307567860439</v>
+        <v>0.9770366210318325</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9873539752675256</v>
+        <v>0.9858548646261091</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9941580494958063</v>
+        <v>0.9941623985098664</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9883589803954264</v>
+        <v>0.9880250907682175</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9660974266054557</v>
+        <v>0.9688989221198766</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.9502853465926662</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9425681681358347</v>
+        <v>0.9425681681358345</v>
       </c>
     </row>
     <row r="20">
@@ -1388,38 +1388,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8944925849871094</v>
+        <v>0.8816922021204139</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9313841645410966</v>
+        <v>0.9177149863227531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8055449044022945</v>
+        <v>0.8047088556863252</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.9577052973563162</v>
+        <v>0.9567769316296969</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9670250353352784</v>
+        <v>0.969194316372899</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9257510675094968</v>
+        <v>0.9230182030628857</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8755211364518525</v>
+        <v>0.8734852906045614</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9607718332559601</v>
+        <v>0.9587939354872597</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9668932997216088</v>
+        <v>0.9697754075113252</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9140612352893904</v>
+        <v>0.9138707745170588</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8988524036076383</v>
+        <v>0.8984436437601133</v>
       </c>
     </row>
     <row r="21">
@@ -1436,32 +1436,32 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9677187650571063</v>
+        <v>0.965367390571423</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.9930363695197999</v>
+        <v>0.9923333926179855</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9967578491110969</v>
+        <v>0.996770571530748</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9878692166218617</v>
+        <v>0.9864047818778564</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9617778973655494</v>
+        <v>0.9593752865716318</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9912530202127808</v>
+        <v>0.9907059666452127</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9946236709093089</v>
+        <v>0.9946326795982069</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.970921020066892</v>
+        <v>0.9748495863603645</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9697179594368771</v>
+        <v>0.9701554774212057</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.931988368735027</v>
+        <v>0.9331260916380889</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.956443078476174</v>
+        <v>0.9577260047881083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8994514943464517</v>
+        <v>0.9003869898138395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8856347131463338</v>
+        <v>0.8846715939162884</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9531669611558864</v>
+        <v>0.9538738590668864</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9541179124127839</v>
+        <v>0.9548290231693379</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9010666667779161</v>
+        <v>0.9049394077150957</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9008224266055551</v>
+        <v>0.8976226068223393</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9505960682506117</v>
+        <v>0.9491371145731852</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9609277015119395</v>
+        <v>0.961582766207141</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.911039451683741</v>
+        <v>0.9112598523075996</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8995722793845784</v>
+        <v>0.9023561456901543</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9701093363924156</v>
+        <v>0.9697315095771659</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9845371188258575</v>
+        <v>0.9842919729101745</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9479831645274227</v>
+        <v>0.9472765439784385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9349430238925522</v>
+        <v>0.9342100075657178</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9784904187328329</v>
+        <v>0.9796091662954302</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9791508083213973</v>
+        <v>0.9780787446683418</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9424470768632232</v>
+        <v>0.9454843979578541</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9331240286209276</v>
+        <v>0.9339529008731428</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9724731139518606</v>
+        <v>0.9714765799417889</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9783398223771994</v>
+        <v>0.9789228918837755</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9404629235051378</v>
+        <v>0.9407332301545052</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.927989886358612</v>
+        <v>0.9298765803615601</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>67193</v>
+        <v>67030</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46410</v>
+        <v>46831</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>50240</v>
+        <v>51007</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>94758</v>
+        <v>96324</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>58920</v>
+        <v>59306</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>57559</v>
+        <v>57851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>48543</v>
+        <v>48460</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>91933</v>
+        <v>92042</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>130430</v>
+        <v>129774</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>108624</v>
+        <v>109068</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>104620</v>
+        <v>104330</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>193326</v>
+        <v>192242</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>76270</v>
+        <v>76330</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>53040</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>60741</v>
+        <v>60914</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>113237</v>
+        <v>114690</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>67598</v>
+        <v>67576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>72743</v>
+        <v>72461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>64107</v>
+        <v>63820</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>106355</v>
+        <v>105740</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>142488</v>
+        <v>142134</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>124154</v>
+        <v>123872</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>122577</v>
+        <v>122856</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>216563</v>
+        <v>216592</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>49917</v>
+        <v>49594</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>55011</v>
+        <v>56554</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34243</v>
+        <v>33949</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>62133</v>
+        <v>62370</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78007</v>
+        <v>76804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>79316</v>
+        <v>78800</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>60660</v>
+        <v>60610</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>83355</v>
+        <v>83037</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>132679</v>
+        <v>132043</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>137715</v>
+        <v>138557</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>100092</v>
+        <v>100658</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>150976</v>
+        <v>151011</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62161</v>
+        <v>62122</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>67312</v>
+        <v>67464</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46679</v>
+        <v>46551</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>75618</v>
+        <v>74843</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>88969</v>
+        <v>88758</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>85767</v>
+        <v>85773</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>74883</v>
+        <v>74669</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>96491</v>
+        <v>96563</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>149206</v>
+        <v>148812</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>152180</v>
+        <v>152767</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>118884</v>
+        <v>118834</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>169350</v>
+        <v>169116</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>90113</v>
+        <v>89802</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>148841</v>
+        <v>149403</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>75632</v>
+        <v>76440</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>83465</v>
+        <v>83686</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39165</v>
+        <v>38651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46708</v>
+        <v>47304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23135</v>
+        <v>22638</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>51540</v>
+        <v>50869</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>132645</v>
+        <v>132067</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>199585</v>
+        <v>199280</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>103786</v>
+        <v>103245</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>137559</v>
+        <v>136853</v>
       </c>
     </row>
     <row r="15">
@@ -2280,34 +2280,34 @@
         <v>156095</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>87001</v>
+        <v>86707</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>94405</v>
+        <v>94016</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45824</v>
+        <v>45822</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>53396</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30190</v>
+        <v>30180</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57564</v>
+        <v>57505</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>141248</v>
+        <v>141215</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>208479</v>
+        <v>208409</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>115925</v>
+        <v>116238</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>150155</v>
+        <v>150459</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>212977</v>
+        <v>212989</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>246108</v>
+        <v>245261</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>170771</v>
+        <v>170625</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>229926</v>
+        <v>230861</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>176876</v>
+        <v>177047</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>207887</v>
+        <v>206144</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>177637</v>
+        <v>177156</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>222120</v>
+        <v>222062</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>394174</v>
+        <v>393906</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>458081</v>
+        <v>458966</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>354673</v>
+        <v>354712</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>460582</v>
+        <v>460778</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>223043</v>
+        <v>222963</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>253735</v>
+        <v>253743</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>182682</v>
+        <v>183326</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>245248</v>
+        <v>245455</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>186597</v>
+        <v>186492</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>219987</v>
+        <v>219986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>192482</v>
+        <v>191892</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>237011</v>
+        <v>237485</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>407783</v>
+        <v>407266</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>472863</v>
+        <v>472759</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>372462</v>
+        <v>373197</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>480487</v>
+        <v>479863</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>37920</v>
+        <v>38041</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>102249</v>
+        <v>101894</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>88465</v>
+        <v>87714</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>87615</v>
+        <v>86215</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>131538</v>
+        <v>131402</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>222797</v>
+        <v>223611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>140937</v>
+        <v>140865</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>183941</v>
+        <v>184114</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>173544</v>
+        <v>172413</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>329484</v>
+        <v>329237</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>232942</v>
+        <v>233429</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>276142</v>
+        <v>277995</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48139</v>
+        <v>48129</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>108960</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>96991</v>
+        <v>97036</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>107177</v>
+        <v>106795</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>137459</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>230791</v>
+        <v>230798</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>147781</v>
+        <v>147769</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>194529</v>
+        <v>194670</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>184175</v>
+        <v>183895</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>338743</v>
+        <v>338745</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>243888</v>
+        <v>243806</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>298124</v>
+        <v>298989</v>
       </c>
     </row>
     <row r="24">
@@ -2770,38 +2770,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>40095</v>
+        <v>39521</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>54682</v>
+        <v>53879</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>50176</v>
+        <v>50124</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>279274</v>
+        <v>279003</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>291626</v>
+        <v>292280</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>199280</v>
+        <v>198692</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>153401</v>
+        <v>153044</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>323233</v>
+        <v>322568</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>348352</v>
+        <v>349391</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>253699</v>
+        <v>253646</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>195580</v>
+        <v>195491</v>
       </c>
     </row>
     <row r="27">
@@ -2818,32 +2818,32 @@
         <v>58710</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>60277</v>
+        <v>60131</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>289576</v>
+        <v>289371</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>300592</v>
+        <v>300596</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>212652</v>
+        <v>212336</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>168514</v>
+        <v>168093</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>333488</v>
+        <v>333304</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>358343</v>
+        <v>358346</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>269480</v>
+        <v>270570</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>211000</v>
+        <v>211095</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>520465</v>
+        <v>521101</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>672056</v>
+        <v>672958</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>496018</v>
+        <v>496534</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>629869</v>
+        <v>629184</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>785418</v>
+        <v>786001</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>930444</v>
+        <v>931138</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>675174</v>
+        <v>678076</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>815881</v>
+        <v>812983</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1314155</v>
+        <v>1312138</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1612294</v>
+        <v>1613393</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1185055</v>
+        <v>1185341</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1454529</v>
+        <v>1459030</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>541754</v>
+        <v>541543</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>691797</v>
+        <v>691625</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>522781</v>
+        <v>522392</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>664937</v>
+        <v>664416</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>806285</v>
+        <v>807207</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>954856</v>
+        <v>953811</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>706180</v>
+        <v>708456</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>845137</v>
+        <v>845888</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1344399</v>
+        <v>1343022</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1641508</v>
+        <v>1642487</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1223328</v>
+        <v>1223679</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1500478</v>
+        <v>1503529</v>
       </c>
     </row>
     <row r="32">
